--- a/xlsx/奥迪A8_intext.xlsx
+++ b/xlsx/奥迪A8_intext.xlsx
@@ -29,19 +29,19 @@
     <t>奥迪</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_奥迪A8</t>
+    <t>政策_政策_混合动力车辆_奥迪A8</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E8%BB%8A</t>
   </si>
   <si>
-    <t>標準車</t>
+    <t>标准车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%8D%8E%E8%BD%A6</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%9B%9B%E9%A9%85</t>
   </si>
   <si>
-    <t>前置四驅</t>
+    <t>前置四驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福斯汽車</t>
+    <t>福斯汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A%E7%89%B9</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%BB%8A</t>
   </si>
   <si>
-    <t>概念車</t>
+    <t>概念车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%BF%AARSQ</t>
   </si>
   <si>
-    <t>奧迪RSQ</t>
+    <t>奥迪RSQ</t>
   </si>
 </sst>
 </file>
